--- a/biology/Médecine/Syndrome_de_Werner/Syndrome_de_Werner.xlsx
+++ b/biology/Médecine/Syndrome_de_Werner/Syndrome_de_Werner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Werner est une maladie rare, héréditaire et génétique qui se traduit par une petite taille et un vieillissement prématuré de l'organisme de l'adulte jeune, associé à une prédisposition aux cancers.
@@ -515,9 +527,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est Otto Werner (en) qui en fit la première description dans sa thèse de recherche : ophtalmologiste allemand, il observait des cataractes précoces et des signes de progéria chez certains de ses patients, notamment dans une famille comptant quatre enfants[1] : canitie, alopécie, ulcères cutanés aux genoux, diabète sucré, cataracte bilatérale, hypogonadisme, calcification vasculaire et ostéoporose.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est Otto Werner (en) qui en fit la première description dans sa thèse de recherche : ophtalmologiste allemand, il observait des cataractes précoces et des signes de progéria chez certains de ses patients, notamment dans une famille comptant quatre enfants : canitie, alopécie, ulcères cutanés aux genoux, diabète sucré, cataracte bilatérale, hypogonadisme, calcification vasculaire et ostéoporose.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévalence du syndrome de Werner est plus élevée dans les populations japonaise et sarde en raison d'un phénomène de mutation fondatrice et elle peut être estimée à environ 1/50000. Dans le reste de la population, elle pourrait être 4 fois moindre[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence du syndrome de Werner est plus élevée dans les populations japonaise et sarde en raison d'un phénomène de mutation fondatrice et elle peut être estimée à environ 1/50000. Dans le reste de la population, elle pourrait être 4 fois moindre. 
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>blanchiment prématuré des cheveux (canitie)
 nanisme
